--- a/natmiOut/OldD7/LR-pairs_lrc2p/Egf-Erbb2.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Egf-Erbb2.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.109760645503512</v>
+        <v>0.1243246666666667</v>
       </c>
       <c r="H2">
-        <v>0.109760645503512</v>
+        <v>0.372974</v>
       </c>
       <c r="I2">
-        <v>0.1024064745545823</v>
+        <v>0.09963085929726231</v>
       </c>
       <c r="J2">
-        <v>0.1024064745545823</v>
+        <v>0.09963085929726233</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.78585804326703</v>
+        <v>3.155977333333333</v>
       </c>
       <c r="N2">
-        <v>2.78585804326703</v>
+        <v>9.467931999999999</v>
       </c>
       <c r="O2">
-        <v>0.3381021416915304</v>
+        <v>0.3579027849973545</v>
       </c>
       <c r="P2">
-        <v>0.3381021416915304</v>
+        <v>0.3579027849973545</v>
       </c>
       <c r="Q2">
-        <v>0.3057775771101401</v>
+        <v>0.3923658299742222</v>
       </c>
       <c r="R2">
-        <v>0.3057775771101401</v>
+        <v>3.531292469768</v>
       </c>
       <c r="S2">
-        <v>0.03462384836998347</v>
+        <v>0.03565816201416975</v>
       </c>
       <c r="T2">
-        <v>0.03462384836998347</v>
+        <v>0.03565816201416975</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.109760645503512</v>
+        <v>0.1243246666666667</v>
       </c>
       <c r="H3">
-        <v>0.109760645503512</v>
+        <v>0.372974</v>
       </c>
       <c r="I3">
-        <v>0.1024064745545823</v>
+        <v>0.09963085929726231</v>
       </c>
       <c r="J3">
-        <v>0.1024064745545823</v>
+        <v>0.09963085929726233</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>3.15316566712496</v>
+        <v>3.165953666666667</v>
       </c>
       <c r="N3">
-        <v>3.15316566712496</v>
+        <v>9.497861</v>
       </c>
       <c r="O3">
-        <v>0.382679967394507</v>
+        <v>0.359034148472735</v>
       </c>
       <c r="P3">
-        <v>0.382679967394507</v>
+        <v>0.359034148472735</v>
       </c>
       <c r="Q3">
-        <v>0.3460934990031477</v>
+        <v>0.3936061342904445</v>
       </c>
       <c r="R3">
-        <v>0.3460934990031477</v>
+        <v>3.542455208614</v>
       </c>
       <c r="S3">
-        <v>0.03918890634353395</v>
+        <v>0.03577088072939944</v>
       </c>
       <c r="T3">
-        <v>0.03918890634353395</v>
+        <v>0.03577088072939945</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>23</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.109760645503512</v>
+        <v>0.1243246666666667</v>
       </c>
       <c r="H4">
-        <v>0.109760645503512</v>
+        <v>0.372974</v>
       </c>
       <c r="I4">
-        <v>0.1024064745545823</v>
+        <v>0.09963085929726231</v>
       </c>
       <c r="J4">
-        <v>0.1024064745545823</v>
+        <v>0.09963085929726233</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.30066986069673</v>
+        <v>2.496042666666666</v>
       </c>
       <c r="N4">
-        <v>2.30066986069673</v>
+        <v>7.488128</v>
       </c>
       <c r="O4">
-        <v>0.2792178909139627</v>
+        <v>0.2830630665299106</v>
       </c>
       <c r="P4">
-        <v>0.2792178909139627</v>
+        <v>0.2830630665299106</v>
       </c>
       <c r="Q4">
-        <v>0.2525230090005481</v>
+        <v>0.3103196725191111</v>
       </c>
       <c r="R4">
-        <v>0.2525230090005481</v>
+        <v>2.792877052672</v>
       </c>
       <c r="S4">
-        <v>0.02859371984106485</v>
+        <v>0.02820181655369313</v>
       </c>
       <c r="T4">
-        <v>0.02859371984106485</v>
+        <v>0.02820181655369313</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.707258862514483</v>
+        <v>0.7328223333333334</v>
       </c>
       <c r="H5">
-        <v>0.707258862514483</v>
+        <v>2.198467</v>
       </c>
       <c r="I5">
-        <v>0.6598711803792621</v>
+        <v>0.5872665557027417</v>
       </c>
       <c r="J5">
-        <v>0.6598711803792621</v>
+        <v>0.5872665557027417</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.78585804326703</v>
+        <v>3.155977333333333</v>
       </c>
       <c r="N5">
-        <v>2.78585804326703</v>
+        <v>9.467931999999999</v>
       </c>
       <c r="O5">
-        <v>0.3381021416915304</v>
+        <v>0.3579027849973545</v>
       </c>
       <c r="P5">
-        <v>0.3381021416915304</v>
+        <v>0.3579027849973545</v>
       </c>
       <c r="Q5">
-        <v>1.970322790807863</v>
+        <v>2.312770673360444</v>
       </c>
       <c r="R5">
-        <v>1.970322790807863</v>
+        <v>20.814936060244</v>
       </c>
       <c r="S5">
-        <v>0.2231038593267466</v>
+        <v>0.2101843358218152</v>
       </c>
       <c r="T5">
-        <v>0.2231038593267466</v>
+        <v>0.2101843358218152</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.707258862514483</v>
+        <v>0.7328223333333334</v>
       </c>
       <c r="H6">
-        <v>0.707258862514483</v>
+        <v>2.198467</v>
       </c>
       <c r="I6">
-        <v>0.6598711803792621</v>
+        <v>0.5872665557027417</v>
       </c>
       <c r="J6">
-        <v>0.6598711803792621</v>
+        <v>0.5872665557027417</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.15316566712496</v>
+        <v>3.165953666666667</v>
       </c>
       <c r="N6">
-        <v>3.15316566712496</v>
+        <v>9.497861</v>
       </c>
       <c r="O6">
-        <v>0.382679967394507</v>
+        <v>0.359034148472735</v>
       </c>
       <c r="P6">
-        <v>0.382679967394507</v>
+        <v>0.359034148472735</v>
       </c>
       <c r="Q6">
-        <v>2.23010436305052</v>
+        <v>2.320081553231889</v>
       </c>
       <c r="R6">
-        <v>2.23010436305052</v>
+        <v>20.880733979087</v>
       </c>
       <c r="S6">
-        <v>0.2525194817921109</v>
+        <v>0.2108487477532498</v>
       </c>
       <c r="T6">
-        <v>0.2525194817921109</v>
+        <v>0.2108487477532498</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>23</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.707258862514483</v>
+        <v>0.7328223333333334</v>
       </c>
       <c r="H7">
-        <v>0.707258862514483</v>
+        <v>2.198467</v>
       </c>
       <c r="I7">
-        <v>0.6598711803792621</v>
+        <v>0.5872665557027417</v>
       </c>
       <c r="J7">
-        <v>0.6598711803792621</v>
+        <v>0.5872665557027417</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.30066986069673</v>
+        <v>2.496042666666666</v>
       </c>
       <c r="N7">
-        <v>2.30066986069673</v>
+        <v>7.488128</v>
       </c>
       <c r="O7">
-        <v>0.2792178909139627</v>
+        <v>0.2830630665299106</v>
       </c>
       <c r="P7">
-        <v>0.2792178909139627</v>
+        <v>0.2830630665299106</v>
       </c>
       <c r="Q7">
-        <v>1.627169148697723</v>
+        <v>1.829155811086222</v>
       </c>
       <c r="R7">
-        <v>1.627169148697723</v>
+        <v>16.462402299776</v>
       </c>
       <c r="S7">
-        <v>0.1842478392604046</v>
+        <v>0.1662334721276766</v>
       </c>
       <c r="T7">
-        <v>0.1842478392604046</v>
+        <v>0.1662334721276766</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.0867081542085182</v>
+        <v>0.2213483333333333</v>
       </c>
       <c r="H8">
-        <v>0.0867081542085182</v>
+        <v>0.664045</v>
       </c>
       <c r="I8">
-        <v>0.08089854379860857</v>
+        <v>0.1773833402919521</v>
       </c>
       <c r="J8">
-        <v>0.08089854379860857</v>
+        <v>0.1773833402919521</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.78585804326703</v>
+        <v>3.155977333333333</v>
       </c>
       <c r="N8">
-        <v>2.78585804326703</v>
+        <v>9.467931999999999</v>
       </c>
       <c r="O8">
-        <v>0.3381021416915304</v>
+        <v>0.3579027849973545</v>
       </c>
       <c r="P8">
-        <v>0.3381021416915304</v>
+        <v>0.3579027849973545</v>
       </c>
       <c r="Q8">
-        <v>0.2415566088186384</v>
+        <v>0.6985703227711111</v>
       </c>
       <c r="R8">
-        <v>0.2415566088186384</v>
+        <v>6.287132904939999</v>
       </c>
       <c r="S8">
-        <v>0.02735197091803563</v>
+        <v>0.0634859915026231</v>
       </c>
       <c r="T8">
-        <v>0.02735197091803563</v>
+        <v>0.0634859915026231</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.0867081542085182</v>
+        <v>0.2213483333333333</v>
       </c>
       <c r="H9">
-        <v>0.0867081542085182</v>
+        <v>0.664045</v>
       </c>
       <c r="I9">
-        <v>0.08089854379860857</v>
+        <v>0.1773833402919521</v>
       </c>
       <c r="J9">
-        <v>0.08089854379860857</v>
+        <v>0.1773833402919521</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>3.15316566712496</v>
+        <v>3.165953666666667</v>
       </c>
       <c r="N9">
-        <v>3.15316566712496</v>
+        <v>9.497861</v>
       </c>
       <c r="O9">
-        <v>0.382679967394507</v>
+        <v>0.359034148472735</v>
       </c>
       <c r="P9">
-        <v>0.382679967394507</v>
+        <v>0.359034148472735</v>
       </c>
       <c r="Q9">
-        <v>0.2734051749100762</v>
+        <v>0.7007785675272222</v>
       </c>
       <c r="R9">
-        <v>0.2734051749100762</v>
+        <v>6.307007107745</v>
       </c>
       <c r="S9">
-        <v>0.03095825210311462</v>
+        <v>0.06368667653497041</v>
       </c>
       <c r="T9">
-        <v>0.03095825210311462</v>
+        <v>0.06368667653497041</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.0867081542085182</v>
+        <v>0.2213483333333333</v>
       </c>
       <c r="H10">
-        <v>0.0867081542085182</v>
+        <v>0.664045</v>
       </c>
       <c r="I10">
-        <v>0.08089854379860857</v>
+        <v>0.1773833402919521</v>
       </c>
       <c r="J10">
-        <v>0.08089854379860857</v>
+        <v>0.1773833402919521</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.30066986069673</v>
+        <v>2.496042666666666</v>
       </c>
       <c r="N10">
-        <v>2.30066986069673</v>
+        <v>7.488128</v>
       </c>
       <c r="O10">
-        <v>0.2792178909139627</v>
+        <v>0.2830630665299106</v>
       </c>
       <c r="P10">
-        <v>0.2792178909139627</v>
+        <v>0.2830630665299106</v>
       </c>
       <c r="Q10">
-        <v>0.1994868370641821</v>
+        <v>0.5524948841955555</v>
       </c>
       <c r="R10">
-        <v>0.1994868370641821</v>
+        <v>4.97245395776</v>
       </c>
       <c r="S10">
-        <v>0.02258832077745832</v>
+        <v>0.05021067225435862</v>
       </c>
       <c r="T10">
-        <v>0.02258832077745832</v>
+        <v>0.05021067225435862</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>20</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.168085872815258</v>
+        <v>0.1693576666666667</v>
       </c>
       <c r="H11">
-        <v>0.168085872815258</v>
+        <v>0.508073</v>
       </c>
       <c r="I11">
-        <v>0.1568238012675472</v>
+        <v>0.1357192447080439</v>
       </c>
       <c r="J11">
-        <v>0.1568238012675472</v>
+        <v>0.1357192447080439</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>2.78585804326703</v>
+        <v>3.155977333333333</v>
       </c>
       <c r="N11">
-        <v>2.78585804326703</v>
+        <v>9.467931999999999</v>
       </c>
       <c r="O11">
-        <v>0.3381021416915304</v>
+        <v>0.3579027849973545</v>
       </c>
       <c r="P11">
-        <v>0.3381021416915304</v>
+        <v>0.3579027849973545</v>
       </c>
       <c r="Q11">
-        <v>0.4682633807419455</v>
+        <v>0.5344889572262221</v>
       </c>
       <c r="R11">
-        <v>0.4682633807419455</v>
+        <v>4.810400615035999</v>
       </c>
       <c r="S11">
-        <v>0.05302246307676466</v>
+        <v>0.04857429565874636</v>
       </c>
       <c r="T11">
-        <v>0.05302246307676466</v>
+        <v>0.04857429565874636</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>21</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.168085872815258</v>
+        <v>0.1693576666666667</v>
       </c>
       <c r="H12">
-        <v>0.168085872815258</v>
+        <v>0.508073</v>
       </c>
       <c r="I12">
-        <v>0.1568238012675472</v>
+        <v>0.1357192447080439</v>
       </c>
       <c r="J12">
-        <v>0.1568238012675472</v>
+        <v>0.1357192447080439</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>3.15316566712496</v>
+        <v>3.165953666666667</v>
       </c>
       <c r="N12">
-        <v>3.15316566712496</v>
+        <v>9.497861</v>
       </c>
       <c r="O12">
-        <v>0.382679967394507</v>
+        <v>0.359034148472735</v>
       </c>
       <c r="P12">
-        <v>0.382679967394507</v>
+        <v>0.359034148472735</v>
       </c>
       <c r="Q12">
-        <v>0.5300026032898042</v>
+        <v>0.5361785257614444</v>
       </c>
       <c r="R12">
-        <v>0.5300026032898042</v>
+        <v>4.825606731853</v>
       </c>
       <c r="S12">
-        <v>0.06001332715574762</v>
+        <v>0.04872784345511527</v>
       </c>
       <c r="T12">
-        <v>0.06001332715574762</v>
+        <v>0.04872784345511527</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.168085872815258</v>
+        <v>0.1693576666666667</v>
       </c>
       <c r="H13">
-        <v>0.168085872815258</v>
+        <v>0.508073</v>
       </c>
       <c r="I13">
-        <v>0.1568238012675472</v>
+        <v>0.1357192447080439</v>
       </c>
       <c r="J13">
-        <v>0.1568238012675472</v>
+        <v>0.1357192447080439</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>2.30066986069673</v>
+        <v>2.496042666666666</v>
       </c>
       <c r="N13">
-        <v>2.30066986069673</v>
+        <v>7.488128</v>
       </c>
       <c r="O13">
-        <v>0.2792178909139627</v>
+        <v>0.2830630665299106</v>
       </c>
       <c r="P13">
-        <v>0.2792178909139627</v>
+        <v>0.2830630665299106</v>
       </c>
       <c r="Q13">
-        <v>0.3867101015949679</v>
+        <v>0.422723961927111</v>
       </c>
       <c r="R13">
-        <v>0.3867101015949679</v>
+        <v>3.804515657344</v>
       </c>
       <c r="S13">
-        <v>0.04378801103503498</v>
+        <v>0.03841710559418225</v>
       </c>
       <c r="T13">
-        <v>0.04378801103503498</v>
+        <v>0.03841710559418225</v>
       </c>
     </row>
   </sheetData>
